--- a/tests/template/cortex_xlsx_data/02-not-100-error.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/02-not-100-error.in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4B70D-7938-5442-A683-BD12469256F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9410D97-5FA8-2444-A065-74F08D3019E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>structure</t>
-  </si>
-  <si>
-    <t>66%</t>
   </si>
   <si>
     <t>dd</t>
@@ -374,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,10 +388,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -407,9 +401,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="B13:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,35 +667,35 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>3.33</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -704,51 +704,51 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="6"/>
@@ -757,59 +757,63 @@
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
-        <v>15</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="D15" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3">
-        <v>100</v>
-      </c>
+      <c r="B16" s="26">
+        <v>0.64990000000000003</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1796,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1817,12 +1821,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1840,7 +1844,7 @@
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1852,10 +1856,10 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="32">
+        <v>0.66</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2881,7 +2885,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/tests/template/cortex_xlsx_data/02-not-100-error.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/02-not-100-error.in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9410D97-5FA8-2444-A065-74F08D3019E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670736CB-A85B-FF42-869B-923D70E8E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -407,6 +407,9 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,9 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="B13:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,30 +704,30 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -788,7 +788,7 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D15" s="25">
         <v>0.15</v>
@@ -1800,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1856,7 +1856,7 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="27">
         <v>0.66</v>
       </c>
       <c r="E7" s="13" t="s">

--- a/tests/template/cortex_xlsx_data/02-not-100-error.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/02-not-100-error.in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670736CB-A85B-FF42-869B-923D70E8E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBACD745-7080-574D-905F-517EBE6FC90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -306,32 +306,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -371,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,22 +375,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +390,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +617,7 @@
   <dimension ref="A1:L986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,30 +673,30 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -757,63 +726,63 @@
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27">
+        <v>20</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="27">
+        <v>5</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27">
+        <v>5</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.15</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26">
-        <v>0.64990000000000003</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="26">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="27">
+        <v>64.990000000000009</v>
+      </c>
+      <c r="C16" s="27">
+        <v>60</v>
+      </c>
+      <c r="D16" s="27">
+        <v>100</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1856,8 +1825,8 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27">
-        <v>0.66</v>
+      <c r="B7" s="26">
+        <v>66</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>29</v>
